--- a/algorithms/bipartite_and_topsort_tests/fixed_bipartite/sparse_tests/Sparse Averages.xlsx
+++ b/algorithms/bipartite_and_topsort_tests/fixed_bipartite/sparse_tests/Sparse Averages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,11 +348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="637033568"/>
-        <c:axId val="637031792"/>
+        <c:axId val="-1574681568"/>
+        <c:axId val="-1574677808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="637033568"/>
+        <c:axId val="-1574681568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637031792"/>
+        <c:crossAx val="-1574677808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637031792"/>
+        <c:axId val="-1574677808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637033568"/>
+        <c:crossAx val="-1574681568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -991,11 +991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="631407200"/>
-        <c:axId val="666288816"/>
+        <c:axId val="-1574647872"/>
+        <c:axId val="-1574644112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="631407200"/>
+        <c:axId val="-1574647872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,12 +1107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666288816"/>
+        <c:crossAx val="-1574644112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="666288816"/>
+        <c:axId val="-1574644112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1229,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631407200"/>
+        <c:crossAx val="-1574647872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3454,8 +3454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A7" zoomScale="107" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/algorithms/bipartite_and_topsort_tests/fixed_bipartite/sparse_tests/Sparse Averages.xlsx
+++ b/algorithms/bipartite_and_topsort_tests/fixed_bipartite/sparse_tests/Sparse Averages.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="660" yWindow="1200" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Uncompressd Sparse Graph</a:t>
+              <a:t>Topological Sort on Uncompressd Poorly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Compressible </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -348,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1574681568"/>
-        <c:axId val="-1574677808"/>
+        <c:axId val="-169932032"/>
+        <c:axId val="-169928272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1574681568"/>
+        <c:axId val="-169932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,12 +472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1574677808"/>
+        <c:crossAx val="-169928272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1574677808"/>
+        <c:axId val="-169928272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -586,7 +594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1574681568"/>
+        <c:crossAx val="-169932032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -991,11 +999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1574647872"/>
-        <c:axId val="-1574644112"/>
+        <c:axId val="-174362416"/>
+        <c:axId val="-169905888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1574647872"/>
+        <c:axId val="-174362416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1071,6 +1079,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1107,12 +1116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1574644112"/>
+        <c:crossAx val="-169905888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1574644112"/>
+        <c:axId val="-169905888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1229,7 +1238,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1574647872"/>
+        <c:crossAx val="-174362416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,7 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -3454,8 +3463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="107" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
